--- a/data/trans_bre/P1404-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1404-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.035305262252842</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.924426551229674</v>
+        <v>1.924426551229669</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8570061616391245</v>
@@ -649,7 +649,7 @@
         <v>0.08152436233843051</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1528269669675125</v>
+        <v>0.152826966967512</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2049023433036304</v>
+        <v>0.5508759453319035</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.649604569143342</v>
+        <v>-2.777294423314318</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.605693991962551</v>
+        <v>-5.132041055893466</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.583834650994336</v>
+        <v>-2.376559393163703</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.01244331757759319</v>
+        <v>0.01342504050839264</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2326799674074486</v>
+        <v>-0.2214204188513656</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3002799817564147</v>
+        <v>-0.3211906061965242</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1635687137080233</v>
+        <v>-0.1569924025607011</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.959678921106914</v>
+        <v>9.432199808986924</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.617704551436944</v>
+        <v>8.702209032052483</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.783877711122861</v>
+        <v>6.420329405105778</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.323003355954553</v>
+        <v>6.197765468522964</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.451713714229307</v>
+        <v>2.493664332008244</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.14085420431735</v>
+        <v>1.162821363124058</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.678159482084936</v>
+        <v>0.6524128453416626</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6295600161503476</v>
+        <v>0.6016180553156226</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.685205319266534</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.211963592689294</v>
+        <v>1.211963592689293</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3471174194815481</v>
@@ -749,7 +749,7 @@
         <v>0.2340165678938745</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1023753426356144</v>
+        <v>0.1023753426356143</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7068943948328864</v>
+        <v>-0.9541225103150804</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.397389037759134</v>
+        <v>-2.08988428847178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.123404609945202</v>
+        <v>-1.313733486301808</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.484574321716117</v>
+        <v>-2.464679849586465</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.07575661365342705</v>
+        <v>-0.1151203516807113</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1672218893661873</v>
+        <v>-0.1415419529110748</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09165492652415425</v>
+        <v>-0.1094665513124675</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1792653621714549</v>
+        <v>-0.1766087683507156</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.335452066856762</v>
+        <v>6.297824102916698</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.24748157662846</v>
+        <v>7.144620306871584</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.990397550330399</v>
+        <v>7.305033527160922</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.858196226285671</v>
+        <v>4.706690156793855</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.08986237523903</v>
+        <v>1.035537636933168</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6582999258820317</v>
+        <v>0.675372144058879</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7504983548602141</v>
+        <v>0.7522729337621271</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5026155464122245</v>
+        <v>0.4927701415100282</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.922053814362473</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.048131878640999</v>
+        <v>2.048131878640993</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02049356234638564</v>
@@ -849,7 +849,7 @@
         <v>0.148955838842908</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1396936946826643</v>
+        <v>0.139693694682664</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.799556262227281</v>
+        <v>-3.570260340188343</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.984573375347198</v>
+        <v>-2.497573472335444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.577276441369437</v>
+        <v>-3.251709000675293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.782013439220098</v>
+        <v>-2.689162314789726</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3881466341666347</v>
+        <v>-0.3986986414615867</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2369270782385167</v>
+        <v>-0.1998436074254227</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2433014928977623</v>
+        <v>-0.2203166491945459</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1625843151840247</v>
+        <v>-0.1672658609572836</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.617795567410951</v>
+        <v>4.567745991803122</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.159937085092824</v>
+        <v>7.232284603192175</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.781531177192676</v>
+        <v>7.651426776779778</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.486018523648431</v>
+        <v>6.383488518498107</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8114026731245521</v>
+        <v>0.7637394545229592</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9328295509866071</v>
+        <v>0.91546678686262</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7280572192109901</v>
+        <v>0.749272064036297</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5355121354089916</v>
+        <v>0.5285584539773862</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.1581051295990239</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.02919297299737833</v>
+        <v>0.02919297299737832</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.29172829801205</v>
+        <v>-4.033824398003666</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.060379648851912</v>
+        <v>-0.9312876235334494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.510801786260838</v>
+        <v>-3.325501788809337</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.897015706862608</v>
+        <v>-4.535567381135674</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5033948743889604</v>
+        <v>-0.4783866645783051</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.08512389798258641</v>
+        <v>-0.07530337351874493</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2319702825150491</v>
+        <v>-0.2157916181869663</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2530959947733876</v>
+        <v>-0.2427652278261265</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.672721991959605</v>
+        <v>3.162553544230372</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.339622836081771</v>
+        <v>9.762789844003665</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.806033032305548</v>
+        <v>6.767736507343819</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.999643705796222</v>
+        <v>5.351515953802797</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5933046766639904</v>
+        <v>0.6770853045699388</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9816801288817207</v>
+        <v>1.038764184957343</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6680082366419533</v>
+        <v>0.667838943502437</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4135637905361041</v>
+        <v>0.4598879083211906</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.776414435708334</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.485910288164994</v>
+        <v>5.485910288164996</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.09249827106725807</v>
@@ -1049,7 +1049,7 @@
         <v>0.1369644094429297</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2833228818658421</v>
+        <v>0.2833228818658423</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.3198318764942</v>
+        <v>-7.096862992806423</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.311110045455556</v>
+        <v>-1.856743114903525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.228319713331095</v>
+        <v>-5.095097041636522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3174902683711319</v>
+        <v>-0.06820499579850438</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5138085080820721</v>
+        <v>-0.4874004548252069</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1149393923646454</v>
+        <v>-0.08981555414038411</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3339417577200944</v>
+        <v>-0.3206392502718418</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.01096736796827206</v>
+        <v>-0.003985991513267478</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.190690223784438</v>
+        <v>4.952317160575037</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.06700285409882</v>
+        <v>13.99382593286073</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.058995550423367</v>
+        <v>8.336499840368889</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.24860146202424</v>
+        <v>11.24157707286658</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6437620791573625</v>
+        <v>0.5906982718423974</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.044207341361722</v>
+        <v>1.119447411778166</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7740975171727941</v>
+        <v>0.8620101546977255</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7129191215190765</v>
+        <v>0.698204591980737</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.3668192939500492</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-2.670488311541686</v>
+        <v>-2.670488311541683</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.34316888565265</v>
@@ -1149,7 +1149,7 @@
         <v>0.03528196909545728</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.1314371277718178</v>
+        <v>-0.1314371277718177</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.287722271862767</v>
+        <v>2.636395332082512</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.653643231314552</v>
+        <v>-4.123819562011163</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.980710725765955</v>
+        <v>-4.826735610740691</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-7.720133284702854</v>
+        <v>-7.793376440821767</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3892781493758692</v>
+        <v>0.2605390336286506</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2734189466292016</v>
+        <v>-0.246442572976227</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3897415699452366</v>
+        <v>-0.3792121007845546</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3318535435269252</v>
+        <v>-0.3367816227031445</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.80716698270566</v>
+        <v>12.93362503993462</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.871785940178514</v>
+        <v>7.698618775076903</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.622671233642274</v>
+        <v>6.030046917909631</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.854628024469115</v>
+        <v>2.396574504078057</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.443691019493747</v>
+        <v>3.295592262389215</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7009624515385665</v>
+        <v>0.7267647530756773</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7469603781995879</v>
+        <v>0.8227322655786299</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1109783756868761</v>
+        <v>0.1426946446461003</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-0.478456282246216</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.799277085689477</v>
+        <v>1.799277085689471</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6932270637830884</v>
@@ -1249,7 +1249,7 @@
         <v>-0.04359238056398061</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1081544224243839</v>
+        <v>0.1081544224243836</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.33937547456597</v>
+        <v>1.436694641769277</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.853579173678835</v>
+        <v>-3.307025812940239</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.066652970084848</v>
+        <v>-4.578607213371703</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.138171983613372</v>
+        <v>-2.020690361498265</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1628358327608065</v>
+        <v>0.1892225044423997</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2837505518351025</v>
+        <v>-0.2581084268149023</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3064782500108663</v>
+        <v>-0.3491637037102211</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1112956045298853</v>
+        <v>-0.1111679817422753</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.87930973639635</v>
+        <v>7.808401358951239</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.875905502412389</v>
+        <v>4.076960406517181</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.034576743656953</v>
+        <v>3.000432560441661</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.44037348909441</v>
+        <v>5.603768504815085</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.50224285733639</v>
+        <v>1.587784301048441</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4130568936651142</v>
+        <v>0.4308348723649522</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3471172689592829</v>
+        <v>0.3279078205736631</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3680916100079401</v>
+        <v>0.3821122437222396</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>3.744389596058395</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.621871856759289</v>
+        <v>2.621871856759286</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09441791658836814</v>
@@ -1349,7 +1349,7 @@
         <v>0.3669912168164414</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2432495398094489</v>
+        <v>0.2432495398094486</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.278953765603426</v>
+        <v>-2.219195658826131</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.2900820251916704</v>
+        <v>-0.06450823434009706</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3672361368163893</v>
+        <v>0.5434626525847734</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.1510015195604986</v>
+        <v>-0.2388194418617749</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1808771810591608</v>
+        <v>-0.1756539825590266</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.0279839136687428</v>
+        <v>-0.02016671482278293</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02662433062358697</v>
+        <v>0.04309384241211681</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01009006686580074</v>
+        <v>-0.01677916450272828</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.333659664344644</v>
+        <v>4.109652026122088</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.939283848127716</v>
+        <v>5.965540888998058</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.076165194433486</v>
+        <v>7.187466848474518</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.461213673510873</v>
+        <v>5.408842792273334</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4943496016896372</v>
+        <v>0.4446409609068185</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8467282563295747</v>
+        <v>0.8523453326388359</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8074603517651395</v>
+        <v>0.8337709630493316</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6055873576894883</v>
+        <v>0.5966872900715907</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>1.786855609829535</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1.713230194043649</v>
+        <v>1.713230194043647</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2999192547102843</v>
@@ -1449,7 +1449,7 @@
         <v>0.1559989476618705</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.1191759236290591</v>
+        <v>0.1191759236290589</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.072409995092105</v>
+        <v>0.9406526449914743</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.7352271573657981</v>
+        <v>0.708966580520787</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1207105084735287</v>
+        <v>0.06035538883768409</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3606534850613885</v>
+        <v>0.1955124301857797</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1213083673189235</v>
+        <v>0.1083879776710829</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06190355330426407</v>
+        <v>0.05835937242277409</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01628145419277445</v>
+        <v>0.003521572623170105</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.0238283853141129</v>
+        <v>0.01329151159841917</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.765359978419092</v>
+        <v>3.806988073618496</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.161602871674742</v>
+        <v>4.16412253748025</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.41408127905149</v>
+        <v>3.485060799973408</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.254170718025602</v>
+        <v>3.243230375206389</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5225008895514013</v>
+        <v>0.5284452320035327</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3920268997128977</v>
+        <v>0.3924841857984905</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3189789498193987</v>
+        <v>0.3232507554040313</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2363903338136363</v>
+        <v>0.2443234859808972</v>
       </c>
     </row>
     <row r="31">
